--- a/resources/data-imports/Items/alchemy-training-skills-increase.xlsx
+++ b/resources/data-imports/Items/alchemy-training-skills-increase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">alchemy_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">specialty_type</t>
   </si>
   <si>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">alchemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase-skill-type</t>
   </si>
   <si>
     <t xml:space="preserve">Speed through the training of your own skills with the power of a concoction of magical ingredients</t>
@@ -335,13 +341,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -365,80 +375,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS5"/>
+  <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN5" activeCellId="0" sqref="AN5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="32.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="19" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="38.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="21.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="26.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="1" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="38.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="21.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="26.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="16.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,6 +665,9 @@
       <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -664,46 +677,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>100</v>
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="n">
         <v>100</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA2" s="1" t="n">
-        <v>1</v>
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>0</v>
+      <c r="AF2" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI2" s="1" t="n">
         <v>0</v>
@@ -717,35 +730,35 @@
       <c r="AL2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" s="1" t="n">
-        <v>1</v>
+      <c r="AM2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AS2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU2" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AV2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AW2" s="1" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1" t="n">
         <v>0.15</v>
       </c>
-      <c r="AZ2" s="1" t="n">
-        <v>0</v>
+      <c r="AY2" s="1" t="n">
+        <v>0.15</v>
       </c>
       <c r="BA2" s="1" t="n">
         <v>0</v>
@@ -765,7 +778,7 @@
       <c r="BF2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL2" s="1" t="n">
+      <c r="BG2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM2" s="1" t="n">
@@ -778,6 +791,9 @@
         <v>0</v>
       </c>
       <c r="BP2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,46 +805,46 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>2660</v>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="M3" s="1" t="n">
         <v>2660</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="n">
+        <v>2660</v>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v>1</v>
+      <c r="Z3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AE3" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>0</v>
+      <c r="AF3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI3" s="1" t="n">
         <v>0</v>
@@ -842,35 +858,35 @@
       <c r="AL3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" s="1" t="n">
-        <v>1</v>
+      <c r="AM3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AS3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AV3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AW3" s="1" t="n">
-        <v>0.3172</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1" t="n">
         <v>0.3172</v>
       </c>
-      <c r="AZ3" s="1" t="n">
-        <v>0</v>
+      <c r="AY3" s="1" t="n">
+        <v>0.3172</v>
       </c>
       <c r="BA3" s="1" t="n">
         <v>0</v>
@@ -890,7 +906,7 @@
       <c r="BF3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL3" s="1" t="n">
+      <c r="BG3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM3" s="1" t="n">
@@ -903,6 +919,9 @@
         <v>0</v>
       </c>
       <c r="BP3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,46 +933,46 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>70700</v>
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>70700</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
+        <v>70700</v>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA4" s="1" t="n">
-        <v>1</v>
+      <c r="Z4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>0</v>
+      <c r="AF4" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI4" s="1" t="n">
         <v>0</v>
@@ -967,35 +986,35 @@
       <c r="AL4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN4" s="1" t="n">
-        <v>1</v>
+      <c r="AM4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AS4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU4" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AV4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AW4" s="1" t="n">
-        <v>0.6708</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1" t="n">
         <v>0.6708</v>
       </c>
-      <c r="AZ4" s="1" t="n">
-        <v>0</v>
+      <c r="AY4" s="1" t="n">
+        <v>0.6708</v>
       </c>
       <c r="BA4" s="1" t="n">
         <v>0</v>
@@ -1015,7 +1034,7 @@
       <c r="BF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL4" s="1" t="n">
+      <c r="BG4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM4" s="1" t="n">
@@ -1028,6 +1047,9 @@
         <v>0</v>
       </c>
       <c r="BP4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1039,46 +1061,46 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>1938400</v>
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>1938400</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
+        <v>1938400</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" s="1" t="n">
-        <v>1</v>
+      <c r="Z5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>0</v>
+      <c r="AF5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0</v>
@@ -1092,35 +1114,35 @@
       <c r="AL5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AN5" s="1" t="n">
-        <v>1</v>
+      <c r="AM5" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="AP5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AS5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="AU5" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AV5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AW5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="AZ5" s="1" t="n">
-        <v>0</v>
+      <c r="AY5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="BA5" s="1" t="n">
         <v>0</v>
@@ -1140,7 +1162,7 @@
       <c r="BF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="BL5" s="1" t="n">
+      <c r="BG5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="BM5" s="1" t="n">
@@ -1153,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="BP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/Items/alchemy-training-skills-increase.xlsx
+++ b/resources/data-imports/Items/alchemy-training-skills-increase.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Items" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -350,11 +350,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,6 +370,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -377,18 +483,18 @@
   </sheetPr>
   <dimension ref="A1:BT5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
@@ -451,7 +557,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="16.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +576,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -670,516 +776,620 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>17246</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="1" t="n">
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1" t="n">
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AV2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1" t="n">
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="AY2" s="1" t="n">
+      <c r="AY2" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="BA2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="0" t="n">
+        <v>17247</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>2660</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>2660</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1" t="n">
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AE3" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1" t="n">
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AV3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1" t="n">
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="0" t="n">
         <v>0.3172</v>
       </c>
-      <c r="AY3" s="1" t="n">
+      <c r="AY3" s="0" t="n">
         <v>0.3172</v>
       </c>
-      <c r="BA3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="0" t="n">
+        <v>17248</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>70700</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>70700</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="1" t="n">
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0" t="n">
+        <v>2984</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>2984</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE4" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AF4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1" t="n">
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AV4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="1" t="n">
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="0" t="n">
         <v>0.6708</v>
       </c>
-      <c r="AY4" s="1" t="n">
+      <c r="AY4" s="0" t="n">
         <v>0.6708</v>
       </c>
-      <c r="BA4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="0" t="n">
+        <v>17249</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="1" t="n">
-        <v>1938400</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>1938400</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1" t="n">
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1" t="n">
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="0"/>
+      <c r="AR5" s="0"/>
+      <c r="AS5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AV5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU5" s="0"/>
+      <c r="AV5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="0"/>
+      <c r="BA5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="0"/>
+      <c r="BI5" s="0"/>
+      <c r="BJ5" s="0"/>
+      <c r="BK5" s="0"/>
+      <c r="BL5" s="0"/>
+      <c r="BM5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="0"/>
+      <c r="BS5" s="0"/>
+      <c r="BT5" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
